--- a/03a.xlsx
+++ b/03a.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6662A4-587C-4AD1-B166-38968B8F4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14D10CB-E3D3-4A06-87DB-FBD96F2D19AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2123" windowWidth="28230" windowHeight="15097" firstSheet="2" activeTab="4" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
+    <workbookView xWindow="6255" yWindow="4748" windowWidth="28230" windowHeight="15097" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="超幾何分布" sheetId="8" r:id="rId1"/>
-    <sheet name="二項分布" sheetId="5" r:id="rId2"/>
-    <sheet name="超幾何分布 (可視化)" sheetId="2" r:id="rId3"/>
-    <sheet name="超幾何分布 (公式に従って作成)" sheetId="9" r:id="rId4"/>
-    <sheet name="二項分布と超幾何分布" sheetId="7" r:id="rId5"/>
+    <sheet name="超幾何分布 (可視化)" sheetId="2" r:id="rId2"/>
+    <sheet name="超幾何分布 (公式に従って作成)" sheetId="9" r:id="rId3"/>
+    <sheet name="二項分布と超幾何分布" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>k</t>
     <phoneticPr fontId="1"/>
@@ -72,43 +71,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>F(k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二項分布の確率質量関数と累積分布関数</t>
-    <rPh sb="0" eb="2">
-      <t>ニコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ルイセキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3730,15 +3697,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6906C1F8-09C0-49E1-B9B2-781701BF3FB2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3746,13 +3713,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -3760,7 +3727,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -3774,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
@@ -3807,16 +3774,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310A225-9017-4CFC-A12F-9CD869BCCF52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C91E2E-DB10-4C32-A984-40A8109BE86A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3824,18 +3793,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>0.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
@@ -3846,87 +3821,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A10" s="3">
         <v>3</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C91E2E-DB10-4C32-A984-40A8109BE86A}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
@@ -3983,7 +3878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709C5B0-9188-4179-A222-C17D50D87EB9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3995,7 +3890,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4003,13 +3898,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -4017,7 +3912,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -4031,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
@@ -4091,11 +3986,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9687DAAE-A0FC-4DB9-A3DA-9DE633EE6A67}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4103,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4111,13 +4006,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>30</v>
@@ -4125,7 +4020,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -4136,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
